--- a/output/est-removals.xlsx
+++ b/output/est-removals.xlsx
@@ -404,19 +404,19 @@
         <v>2021</v>
       </c>
       <c r="B2">
-        <v>243883252.8745309</v>
+        <v>286430675.2961038</v>
       </c>
       <c r="C2">
-        <v>3647.452334208706</v>
+        <v>3842.437691780744</v>
       </c>
       <c r="D2">
-        <v>-1972.87787675</v>
+        <v>-1925.3233075</v>
       </c>
       <c r="E2">
-        <v>85648.41071623622</v>
+        <v>84417.38199781896</v>
       </c>
       <c r="F2">
-        <v>331.225017528922</v>
+        <v>309.1900666394566</v>
       </c>
       <c r="G2">
         <v>-673997.8000833333</v>
@@ -430,19 +430,19 @@
         <v>2022</v>
       </c>
       <c r="B3">
-        <v>3378805318.864707</v>
+        <v>3658584169.467158</v>
       </c>
       <c r="C3">
-        <v>50532.50357239632</v>
+        <v>49079.52577628189</v>
       </c>
       <c r="D3">
-        <v>9123.182858749999</v>
+        <v>8970.747291416665</v>
       </c>
       <c r="E3">
-        <v>236952.0492112156</v>
+        <v>227008.8576491917</v>
       </c>
       <c r="F3">
-        <v>916.3561354749191</v>
+        <v>831.4506108009122</v>
       </c>
       <c r="G3">
         <v>-742542.1916666665</v>
@@ -456,19 +456,19 @@
         <v>2023</v>
       </c>
       <c r="B4">
-        <v>1488897903.468247</v>
+        <v>1659270216.880841</v>
       </c>
       <c r="C4">
-        <v>22267.55658453349</v>
+        <v>22258.93723010358</v>
       </c>
       <c r="D4">
-        <v>1364.002509583333</v>
+        <v>1328.957207166667</v>
       </c>
       <c r="E4">
-        <v>125221.8043971313</v>
+        <v>124221.0925332663</v>
       </c>
       <c r="F4">
-        <v>484.2657792432385</v>
+        <v>454.9765340907993</v>
       </c>
       <c r="G4">
         <v>-452527.771</v>
@@ -482,19 +482,19 @@
         <v>2024</v>
       </c>
       <c r="B5">
-        <v>1488897903.468247</v>
+        <v>1659270216.880841</v>
       </c>
       <c r="C5">
-        <v>22267.55658453349</v>
+        <v>22258.93723010358</v>
       </c>
       <c r="D5">
-        <v>1364.002509583333</v>
+        <v>1328.957207166667</v>
       </c>
       <c r="E5">
-        <v>125221.8043971313</v>
+        <v>124221.0925332663</v>
       </c>
       <c r="F5">
-        <v>484.2657792432385</v>
+        <v>454.9765340907993</v>
       </c>
       <c r="G5">
         <v>-452527.771</v>

--- a/output/est-removals.xlsx
+++ b/output/est-removals.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -398,31 +398,47 @@
           <t>Max</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Skw</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Krt</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
         <v>2021</v>
       </c>
       <c r="B2">
-        <v>286430675.2961038</v>
+        <v>286.4306752961037</v>
       </c>
       <c r="C2">
-        <v>3842.437691780744</v>
+        <v>0.003842437691780744</v>
       </c>
       <c r="D2">
-        <v>-1925.3233075</v>
+        <v>-0.0019253233075</v>
       </c>
       <c r="E2">
-        <v>84417.38199781896</v>
+        <v>0.08441738199781895</v>
       </c>
       <c r="F2">
-        <v>309.1900666394566</v>
+        <v>0.0003091900666394566</v>
       </c>
       <c r="G2">
-        <v>-673997.8000833333</v>
+        <v>-0.6739978000833333</v>
       </c>
       <c r="H2">
-        <v>2187039.310333333</v>
+        <v>2.187039310333333</v>
+      </c>
+      <c r="I2">
+        <v>8.659954579229185</v>
+      </c>
+      <c r="J2">
+        <v>142.0726295598776</v>
       </c>
     </row>
     <row r="3">
@@ -430,25 +446,31 @@
         <v>2022</v>
       </c>
       <c r="B3">
-        <v>3658584169.467158</v>
+        <v>3658.584169467158</v>
       </c>
       <c r="C3">
-        <v>49079.52577628189</v>
+        <v>0.0490795257762819</v>
       </c>
       <c r="D3">
-        <v>8970.747291416665</v>
+        <v>0.008970747291416666</v>
       </c>
       <c r="E3">
-        <v>227008.8576491917</v>
+        <v>0.2270088576491917</v>
       </c>
       <c r="F3">
-        <v>831.4506108009122</v>
+        <v>0.0008314506108009123</v>
       </c>
       <c r="G3">
-        <v>-742542.1916666665</v>
+        <v>-0.7425421916666666</v>
       </c>
       <c r="H3">
-        <v>8079988.598333334</v>
+        <v>8.079988598333333</v>
+      </c>
+      <c r="I3">
+        <v>18.21700571977744</v>
+      </c>
+      <c r="J3">
+        <v>471.2422311621681</v>
       </c>
     </row>
     <row r="4">
@@ -456,25 +478,31 @@
         <v>2023</v>
       </c>
       <c r="B4">
-        <v>1659270216.880841</v>
+        <v>1659.270216880841</v>
       </c>
       <c r="C4">
-        <v>22258.93723010358</v>
+        <v>0.02225893723010357</v>
       </c>
       <c r="D4">
-        <v>1328.957207166667</v>
+        <v>0.001328957207166667</v>
       </c>
       <c r="E4">
-        <v>124221.0925332663</v>
+        <v>0.1242210925332663</v>
       </c>
       <c r="F4">
-        <v>454.9765340907993</v>
+        <v>0.0004549765340907993</v>
       </c>
       <c r="G4">
-        <v>-452527.771</v>
+        <v>-0.452527771</v>
       </c>
       <c r="H4">
-        <v>3591186.442541667</v>
+        <v>3.591186442541667</v>
+      </c>
+      <c r="I4">
+        <v>13.23358847587294</v>
+      </c>
+      <c r="J4">
+        <v>239.5432565990987</v>
       </c>
     </row>
     <row r="5">
@@ -482,25 +510,31 @@
         <v>2024</v>
       </c>
       <c r="B5">
-        <v>1659270216.880841</v>
+        <v>1659.270216880841</v>
       </c>
       <c r="C5">
-        <v>22258.93723010358</v>
+        <v>0.02225893723010357</v>
       </c>
       <c r="D5">
-        <v>1328.957207166667</v>
+        <v>0.001328957207166667</v>
       </c>
       <c r="E5">
-        <v>124221.0925332663</v>
+        <v>0.1242210925332663</v>
       </c>
       <c r="F5">
-        <v>454.9765340907993</v>
+        <v>0.0004549765340907993</v>
       </c>
       <c r="G5">
-        <v>-452527.771</v>
+        <v>-0.452527771</v>
       </c>
       <c r="H5">
-        <v>3591186.442541667</v>
+        <v>3.591186442541667</v>
+      </c>
+      <c r="I5">
+        <v>13.23358847587294</v>
+      </c>
+      <c r="J5">
+        <v>239.5432565990987</v>
       </c>
     </row>
   </sheetData>

--- a/output/est-removals.xlsx
+++ b/output/est-removals.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -414,19 +414,19 @@
         <v>2021</v>
       </c>
       <c r="B2">
-        <v>286.4306752961037</v>
+        <v>286.3896919381082</v>
       </c>
       <c r="C2">
-        <v>0.003842437691780744</v>
+        <v>0.003842506466190472</v>
       </c>
       <c r="D2">
-        <v>-0.0019253233075</v>
+        <v>-0.001925791225</v>
       </c>
       <c r="E2">
-        <v>0.08441738199781895</v>
+        <v>0.08442417743778662</v>
       </c>
       <c r="F2">
-        <v>0.0003091900666394566</v>
+        <v>0.000309239847380382</v>
       </c>
       <c r="G2">
         <v>-0.6739978000833333</v>
@@ -435,10 +435,10 @@
         <v>2.187039310333333</v>
       </c>
       <c r="I2">
-        <v>8.659954579229185</v>
+        <v>8.659255154508573</v>
       </c>
       <c r="J2">
-        <v>142.0726295598776</v>
+        <v>142.0492504548693</v>
       </c>
     </row>
     <row r="3">
@@ -446,19 +446,19 @@
         <v>2022</v>
       </c>
       <c r="B3">
-        <v>3658.584169467158</v>
+        <v>3658.475272104233</v>
       </c>
       <c r="C3">
-        <v>0.0490795257762819</v>
+        <v>0.04908596672710021</v>
       </c>
       <c r="D3">
-        <v>0.008970747291416666</v>
+        <v>0.008968974232833332</v>
       </c>
       <c r="E3">
-        <v>0.2270088576491917</v>
+        <v>0.2270265643180128</v>
       </c>
       <c r="F3">
-        <v>0.0008314506108009123</v>
+        <v>0.0008315824001096169</v>
       </c>
       <c r="G3">
         <v>-0.7425421916666666</v>
@@ -467,10 +467,10 @@
         <v>8.079988598333333</v>
       </c>
       <c r="I3">
-        <v>18.21700571977744</v>
+        <v>18.21559183139755</v>
       </c>
       <c r="J3">
-        <v>471.2422311621681</v>
+        <v>471.1685677028393</v>
       </c>
     </row>
     <row r="4">
@@ -478,19 +478,19 @@
         <v>2023</v>
       </c>
       <c r="B4">
-        <v>1659.270216880841</v>
+        <v>1659.155651004951</v>
       </c>
       <c r="C4">
-        <v>0.02225893723010357</v>
+        <v>0.02226098388618246</v>
       </c>
       <c r="D4">
-        <v>0.001328957207166667</v>
+        <v>0.001328722579833333</v>
       </c>
       <c r="E4">
-        <v>0.1242210925332663</v>
+        <v>0.1242309876239121</v>
       </c>
       <c r="F4">
-        <v>0.0004549765340907993</v>
+        <v>0.0004550494043136264</v>
       </c>
       <c r="G4">
         <v>-0.452527771</v>
@@ -499,42 +499,10 @@
         <v>3.591186442541667</v>
       </c>
       <c r="I4">
-        <v>13.23358847587294</v>
+        <v>13.23250752577252</v>
       </c>
       <c r="J4">
-        <v>239.5432565990987</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>2024</v>
-      </c>
-      <c r="B5">
-        <v>1659.270216880841</v>
-      </c>
-      <c r="C5">
-        <v>0.02225893723010357</v>
-      </c>
-      <c r="D5">
-        <v>0.001328957207166667</v>
-      </c>
-      <c r="E5">
-        <v>0.1242210925332663</v>
-      </c>
-      <c r="F5">
-        <v>0.0004549765340907993</v>
-      </c>
-      <c r="G5">
-        <v>-0.452527771</v>
-      </c>
-      <c r="H5">
-        <v>3.591186442541667</v>
-      </c>
-      <c r="I5">
-        <v>13.23358847587294</v>
-      </c>
-      <c r="J5">
-        <v>239.5432565990987</v>
+        <v>239.5041605447762</v>
       </c>
     </row>
   </sheetData>
